--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1433533.093473484</v>
+        <v>1492052.7862877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6947918.159841063</v>
+        <v>7432343.82848429</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,16 +667,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8303978700982</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72.57574927862522</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -817,16 +819,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>34.027916671934</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>59.52286283173692</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -908,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>138.9927610751703</v>
+        <v>138.9927610751704</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -1057,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>16.18706866299377</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>265.3439815931935</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>294.3155467214276</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1142,10 +1144,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>247.6774753247753</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>158.2136673960828</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1351,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>216.6709976520901</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>412.8294254006144</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.1885448588004</v>
+        <v>29.8510591046953</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>296.7156657509959</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>144.4880612633694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1822,10 +1824,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>201.2529674174892</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>119.8908800354068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8315513463416</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271609</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>76.34947650094023</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>212.7023363217787</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>127.3070532137306</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>69.59938463938047</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>224.9097944382469</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>222.3294351332533</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2950,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>40.56488160647112</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.51998788130911</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>126.757405381677</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3202,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>25.08858768490821</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396246</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855909</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>60.90821401514369</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.20067698409558</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3503,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396343</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855909</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>12.82988994718436</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>76.34947650094</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3746,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>47.12744833308916</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3797,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.6836051445039</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>16.66918694451884</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3958,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>200.1143878900198</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3980,22 +3982,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>139.1687919202453</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864471</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396358</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4141,7 +4143,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>81.06278370672285</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716.9127977186621</v>
+        <v>601.4828916608715</v>
       </c>
       <c r="C2" t="n">
-        <v>694.0524717723663</v>
+        <v>578.6225657145757</v>
       </c>
       <c r="D2" t="n">
-        <v>674.8002549977706</v>
+        <v>559.37034893998</v>
       </c>
       <c r="E2" t="n">
-        <v>469.9210652299946</v>
+        <v>537.4338131282416</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>516.3500353580458</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>112.0109729474945</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>572.914647509062</v>
+        <v>521.1434366268327</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1479.02128511169</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1479.02128511169</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1479.02128511169</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="V2" t="n">
-        <v>1542.1289725064</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="W2" t="n">
-        <v>1145.737622806746</v>
+        <v>1434.34812078936</v>
       </c>
       <c r="X2" t="n">
-        <v>734.0176239744937</v>
+        <v>1022.628121957107</v>
       </c>
       <c r="Y2" t="n">
-        <v>732.7207579697881</v>
+        <v>1021.331255952402</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>693.542625066818</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>576.0367215843228</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>472.1967630996078</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>367.494829372545</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>273.8489990554492</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>179.7952272730532</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.4191340353628</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.4191340353628</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>398.1166233149538</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>398.1166233149538</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>398.1166233149538</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>398.1166233149538</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>513.0834392682364</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>992.0223635106648</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1470.961287753093</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1711.902581474805</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1125.639869366925</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>962.1625231335884</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>822.4696344868808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>549.3352123390309</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>549.3352123390309</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>549.3352123390309</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>383.1270064918845</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>383.1270064918845</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>216.8700367861166</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>73.07376829427099</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>393.4019879271597</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>784.5877828974105</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773446</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>1764.971717135008</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.971717135008</v>
       </c>
       <c r="U4" t="n">
-        <v>1874.409187505008</v>
+        <v>1764.971717135008</v>
       </c>
       <c r="V4" t="n">
-        <v>1592.697720113037</v>
+        <v>1483.260249743036</v>
       </c>
       <c r="W4" t="n">
-        <v>1317.84531628555</v>
+        <v>1208.407845915549</v>
       </c>
       <c r="X4" t="n">
-        <v>1317.84531628555</v>
+        <v>965.8439493613545</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>739.5011810510965</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>709.2637433779112</v>
+        <v>305.2233393375071</v>
       </c>
       <c r="C5" t="n">
-        <v>686.4034174316154</v>
+        <v>282.3630133912113</v>
       </c>
       <c r="D5" t="n">
-        <v>667.1512006570197</v>
+        <v>263.1107966166157</v>
       </c>
       <c r="E5" t="n">
-        <v>645.2146648452813</v>
+        <v>241.1742608048773</v>
       </c>
       <c r="F5" t="n">
-        <v>624.1308870750855</v>
+        <v>220.0904830346816</v>
       </c>
       <c r="G5" t="n">
-        <v>219.7918246645341</v>
+        <v>219.7918246645343</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4565,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>695.3677541233694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>695.3677541233694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1246.033289107808</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1246.033289107808</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="N6" t="n">
-        <v>1246.033289107808</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.746465514894</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.746465514894</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.0551063900343</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>493.0825432689503</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>476.7319688618859</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>310.5237630147394</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4723,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483782</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656295</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751020999</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>855.2210751020999</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.8103493568966</v>
+        <v>1212.438652888478</v>
       </c>
       <c r="C8" t="n">
-        <v>356.9500234106008</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D8" t="n">
-        <v>337.6978066360052</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>315.7612708242668</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>294.6774930540711</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4808,19 +4810,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M8" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="N8" t="n">
-        <v>2059.098288819458</v>
-      </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>1204.995983693536</v>
+        <v>1633.583883184714</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.6587136484267</v>
+        <v>1632.287017180008</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4901,7 @@
         <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.9935909805931</v>
+        <v>482.447562277202</v>
       </c>
       <c r="C10" t="n">
-        <v>626.1818057320246</v>
+        <v>310.474999156118</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4999,13 +5001,13 @@
         <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.502328002917</v>
+        <v>708.7903305874599</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.1595596926588</v>
+        <v>482.447562277202</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1183.889011029889</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1183.889011029889</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1183.889011029889</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1183.889011029889</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679219</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679219</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722913</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870095</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870095</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>1725.386633283878</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>2525.828245681682</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.10752483961</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.10752483961</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.10752483961</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.10752483961</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3013.181953884243</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2754.827044480655</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2397.337629606905</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2000.946279907251</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1589.226281074999</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1183.889011029889</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.12879345870402</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>343.8262827382951</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>934.3112093066347</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>1157.172064038804</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.172064038804</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.172064038804</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.3124929819558</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C13" t="n">
-        <v>336.3124929819558</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D13" t="n">
-        <v>336.3124929819558</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E13" t="n">
-        <v>336.3124929819558</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212082</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1639.712476796966</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1212.811746810266</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>789.5191259952667</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>789.5191259952667</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>364.3949441846668</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679219</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679219</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1227.727221711491</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1977.580432937623</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>2778.022045335426</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>2778.022045335426</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P14" t="n">
-        <v>2778.022045335426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.10752483961</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.10752483961</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.10752483961</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.10752483961</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.10752483961</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.618109965859</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2876.618109965859</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2464.898111133606</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2059.560841088497</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763833</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763833</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>608.7826918167192</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1409.224304214523</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>1409.224304214523</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>832.2052303037439</v>
+        <v>3487.551789132761</v>
       </c>
       <c r="C16" t="n">
-        <v>660.2326671826598</v>
+        <v>3487.551789132761</v>
       </c>
       <c r="D16" t="n">
-        <v>496.9158943094305</v>
+        <v>3324.235016259532</v>
       </c>
       <c r="E16" t="n">
-        <v>330.7076884622841</v>
+        <v>3324.235016259532</v>
       </c>
       <c r="F16" t="n">
-        <v>330.7076884622841</v>
+        <v>3324.235016259532</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4507187565162</v>
+        <v>3178.287479629866</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>3034.49121113802</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679219</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209456</v>
+        <v>2992.213971102454</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267828</v>
+        <v>3218.741572308291</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212035</v>
+        <v>3573.430893602712</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191454</v>
+        <v>3964.616688572963</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.06770706749</v>
+        <v>4342.108199448999</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747253</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669154</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.095177909916</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597089</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116224</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342124</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842428</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V16" t="n">
-        <v>1301.111895168197</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W16" t="n">
-        <v>1301.111895168197</v>
+        <v>4146.624422709279</v>
       </c>
       <c r="X16" t="n">
-        <v>1058.547998614002</v>
+        <v>3904.060526155085</v>
       </c>
       <c r="Y16" t="n">
-        <v>832.2052303037439</v>
+        <v>3677.717757844826</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5558,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.799010768326</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.799010768326</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>606.6296631841825</v>
+        <v>855.9588572096898</v>
       </c>
       <c r="C19" t="n">
-        <v>606.6296631841825</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5692,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2161.613841793297</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1881.429393293601</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.554700588194</v>
+        <v>1599.71792590163</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.702296760707</v>
+        <v>1324.865522074143</v>
       </c>
       <c r="X19" t="n">
-        <v>1023.138400206512</v>
+        <v>1082.301625519948</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.7956318962481</v>
+        <v>855.9588572096898</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>923.0523692223782</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>528.0267489559496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1364.825557038856</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2158.556444171847</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>2158.556444171847</v>
       </c>
       <c r="V22" t="n">
-        <v>1654.390500794518</v>
+        <v>1876.844976779876</v>
       </c>
       <c r="W22" t="n">
-        <v>1654.390500794518</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X22" t="n">
-        <v>1411.826604240323</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1185.483835930065</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2856.963518260713</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3833.214576747414</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>4986.247912752128</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.167063056836</v>
+        <v>3639.345638226955</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>3639.345638226955</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3510.752655182783</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="U25" t="n">
-        <v>2065.542080025265</v>
+        <v>4664.816174310867</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.830612633294</v>
+        <v>4383.104706918895</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.978208805807</v>
+        <v>4108.252303091408</v>
       </c>
       <c r="X25" t="n">
-        <v>1438.67580007916</v>
+        <v>3865.688406537213</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.333031768902</v>
+        <v>3639.345638226955</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.8534934449018</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1885.399082794408</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1605.214634294712</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1605.214634294712</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1330.362230467225</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1330.362230467225</v>
+        <v>760.8792255287249</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.019462156967</v>
+        <v>534.5364572184669</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6472,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3444.81394993059</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C31" t="n">
-        <v>3272.841386809506</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D31" t="n">
-        <v>3272.841386809506</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E31" t="n">
-        <v>3272.841386809506</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>3100.979612584067</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5079.256894653741</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4909.121847172876</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4665.782499398776</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4385.598050899081</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V31" t="n">
-        <v>4103.886583507109</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W31" t="n">
-        <v>4103.886583507109</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X31" t="n">
-        <v>3861.322686952914</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y31" t="n">
-        <v>3634.979918642656</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>834.4360146577217</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="C34" t="n">
-        <v>834.4360146577217</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="D34" t="n">
-        <v>706.3982314439065</v>
+        <v>631.971670946716</v>
       </c>
       <c r="E34" t="n">
-        <v>540.1900255967601</v>
+        <v>465.7634650995695</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>293.9016908741299</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>127.6447211683621</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6892,16 +6894,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.165879923982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1024.601983369787</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1024.601983369787</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063314</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
         <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409472</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988726</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883212</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623562</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>923.0523692223754</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>1852.677416841652</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2856.96351826071</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3833.214576747411</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747411</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905339</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409522</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164565</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209198</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.48789580561</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931859</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232206</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399954</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354844</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372837</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547884</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700735</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430107</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7056,10 +7058,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>938.046102504054</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573464</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.250092117427</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="C37" t="n">
-        <v>581.277528996343</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="D37" t="n">
-        <v>417.9607561231137</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976741</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976741</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.359578021128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1687.175129521432</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V37" t="n">
-        <v>1687.175129521432</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.322725693945</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.758829139751</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.4160608294926</v>
+        <v>930.0221429225235</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7150,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988737</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372837</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547884</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700735</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430107</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7257,22 +7259,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>223.2920388516654</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>223.2920388516654</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>223.2920388516654</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O39" t="n">
-        <v>1112.773316863137</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7293,10 +7295,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>938.046102504054</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573464</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3449.179669514887</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>3277.207106393803</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>3113.890333520574</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>2947.682127673427</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>2947.682127673427</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>2947.682127673427</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878291</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878291</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.21397110245</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308287</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602708</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572959</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199448994</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128757</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050658</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291425</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810559</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>4945.000622810559</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>4664.816174310864</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>4383.104706918893</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W40" t="n">
-        <v>4108.252303091405</v>
+        <v>1679.113256286672</v>
       </c>
       <c r="X40" t="n">
-        <v>3865.688406537211</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>3639.345638226952</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.500037530357</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>995.599307543657</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>572.3066867286573</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>524.7032035639207</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>99.57902175332092</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57902175332092</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679213</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945948</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M41" t="n">
-        <v>1633.224300044002</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N41" t="n">
-        <v>2433.665912441804</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2650.459750353793</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2254.06840065414</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>1842.348401821887</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1842.348401821887</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>336.3796397763832</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>336.3796397763832</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3796397763832</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N42" t="n">
-        <v>336.3796397763832</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1136.821252174186</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1327.204994129819</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>408.5164878433157</v>
+        <v>770.0572249530633</v>
       </c>
       <c r="C43" t="n">
-        <v>236.5439247222317</v>
+        <v>598.0846618319792</v>
       </c>
       <c r="D43" t="n">
-        <v>236.5439247222317</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E43" t="n">
-        <v>236.5439247222317</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68215049679213</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2074.960130429055</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1831.620782654955</v>
+        <v>2265.878178248736</v>
       </c>
       <c r="U43" t="n">
-        <v>1551.43633415526</v>
+        <v>1985.69372974904</v>
       </c>
       <c r="V43" t="n">
-        <v>1269.724866763288</v>
+        <v>1703.982262357069</v>
       </c>
       <c r="W43" t="n">
-        <v>1067.589121419834</v>
+        <v>1429.129858529582</v>
       </c>
       <c r="X43" t="n">
-        <v>825.0252248656393</v>
+        <v>1186.565961975387</v>
       </c>
       <c r="Y43" t="n">
-        <v>598.6824565553813</v>
+        <v>960.223193665129</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1071.393351443749</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>644.4926214570494</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>644.4926214570494</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E44" t="n">
-        <v>503.9180841638723</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>503.9180841638723</v>
+        <v>839.4070255988752</v>
       </c>
       <c r="G44" t="n">
-        <v>99.57902175332092</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136876</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L44" t="n">
-        <v>1227.72722171149</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>2028.168834109293</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2828.610446507096</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480042</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.578985780389</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X44" t="n">
-        <v>1896.578985780389</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.241715735279</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.12879345870397</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>72.12879345870397</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>662.6137200270435</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>662.6137200270435</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.928168679499</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.7445290898215</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>637.7719659687375</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>474.4551930955082</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E46" t="n">
-        <v>308.2469872483617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F46" t="n">
-        <v>308.2469872483617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2116.174964893333</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1872.835617119233</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1592.651168619538</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1310.939701227567</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1036.087297400079</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1036.087297400079</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>809.7445290898215</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>159.3603682079964</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>521.2079540533999</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>521.0563139884142</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8055,25 +8057,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>137.4711251360493</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761904</v>
       </c>
       <c r="P3" t="n">
-        <v>267.4386025673074</v>
+        <v>505.5475323587968</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978912</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>452.4011488286621</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>98.52275580777444</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>460.2559062950368</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8456,7 +8458,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8465,13 +8467,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8547,10 +8549,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>462.8067063011424</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425253</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>183.4963525453387</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659266</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8772,7 +8774,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>247.6270611911681</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8784,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,25 +8932,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425253</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>794.8587489864336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443485</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>298.2513785328694</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.869909423444</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9164,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>728.607001161029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>177.9816038035657</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9659,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9726,16 +9728,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>153.3615438023222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,7 +9962,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
@@ -9969,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>498.5385371580936</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10598,7 +10600,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10674,7 +10676,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574455</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>440.932857310358</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>144.7265265585093</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>534.642907502631</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>813.290391333176</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>995.5270479465637</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321239</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>214.0776512610241</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093335</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>328.2401951647194</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,16 +11381,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>437.5558195552126</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>406.5994887481519</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321239</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.043514591879386</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.07576416614464</v>
+        <v>158.4132499202497</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.58000603545</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396357</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.10633874534079</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>77.64138530056215</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>121.0150742609522</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.06280137170978151</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.5564777954188</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>66.19201639627263</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>34.37655193076638</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>170.5388729492724</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>15.99615985811209</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>17.80882245539965</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>129.687955883402</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04823929838947</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>34.92619976282</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>117.2697181220189</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>100.7753911293533</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>143.7052773122634</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>129.5284158597428</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>163.7887810877129</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>374.5897221205319</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>224.2367673518402</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.9894918991923</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>282.5483785333757</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.64236734312286</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26038,10 +26040,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>87.37091329933364</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>628240.2439679325</v>
+        <v>623039.1608796861</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480618.1948826862</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480618.194882686</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648192.4368448994</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>648192.4368448996</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648192.4368448996</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648192.4368448994</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648192.4368448996</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480618.194882686</v>
+        <v>648192.4368448994</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480618.1948826859</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="D2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.9468021283</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="G2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="H2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="J2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="K2" t="n">
+        <v>435573.5624315218</v>
+      </c>
+      <c r="L2" t="n">
         <v>435573.5624315216</v>
       </c>
-      <c r="H2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="N2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="O2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="P2" t="n">
         <v>435573.5624315216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="L2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435573.5624315215</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322990.9468021281</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322990.9468021279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361217</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346239</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348166</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537383</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199866.3919893415</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26424,13 +26426,13 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>74852.47981333028</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>74852.47981333018</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458317</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458318</v>
@@ -26451,13 +26453,13 @@
         <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>74852.47981333024</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756207</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756206</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756202</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756202</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2324.308732855512</v>
+        <v>14980.5251703734</v>
       </c>
       <c r="C6" t="n">
-        <v>184080.4246818817</v>
+        <v>160673.5910082695</v>
       </c>
       <c r="D6" t="n">
-        <v>184080.4246818818</v>
+        <v>184080.4246818816</v>
       </c>
       <c r="E6" t="n">
-        <v>123649.0814577736</v>
+        <v>41071.28964061938</v>
       </c>
       <c r="F6" t="n">
-        <v>198980.0326112359</v>
+        <v>256810.6461972599</v>
       </c>
       <c r="G6" t="n">
-        <v>127920.2463857198</v>
+        <v>256810.6461972599</v>
       </c>
       <c r="H6" t="n">
-        <v>256810.6461972602</v>
+        <v>256810.6461972599</v>
       </c>
       <c r="I6" t="n">
+        <v>256810.6461972598</v>
+      </c>
+      <c r="J6" t="n">
+        <v>130233.3776169713</v>
+      </c>
+      <c r="K6" t="n">
+        <v>238164.0458402405</v>
+      </c>
+      <c r="L6" t="n">
         <v>256810.6461972601</v>
       </c>
-      <c r="J6" t="n">
-        <v>111276.9762624435</v>
-      </c>
-      <c r="K6" t="n">
-        <v>256810.6461972602</v>
-      </c>
-      <c r="L6" t="n">
-        <v>256810.6461972602</v>
-      </c>
       <c r="M6" t="n">
-        <v>193936.7092318863</v>
+        <v>76746.77474209231</v>
       </c>
       <c r="N6" t="n">
         <v>256810.6461972599</v>
       </c>
       <c r="O6" t="n">
-        <v>198980.0326112359</v>
+        <v>256810.64619726</v>
       </c>
       <c r="P6" t="n">
-        <v>198980.0326112356</v>
+        <v>256810.6461972601</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26712,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099024</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099024</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099017</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099017</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943083</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629544</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943083</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629544</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>218.8867725835228</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>222.3139454620803</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.74296590519279</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>217.8597411829618</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>155.8969336655353</v>
+        <v>155.8969336655351</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>145.4965364815032</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>6.759898196018582</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>128.3161759654053</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,10 +27864,10 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>152.6181964616705</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>12.03917009379032</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>23.46725993656281</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28506,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.651176503178812e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28615,16 +28617,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28788,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-5.571468945766518e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.039137308914149e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.936877707947525e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30423,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.651176503178812e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.0483257753735</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>116.1280969225076</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P3" t="n">
-        <v>245.6677613624788</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408791</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>415.010189472638</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>75.42597529544646</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>437.0840165728146</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35185,13 +35187,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>440.0596680121639</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099024</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>146.2167297108927</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099024</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
@@ -35492,7 +35494,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1119744769386</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099024</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>757.4274860870019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099024</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>275.1545980205414</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099024</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871126607</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35817,7 +35819,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977433</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35884,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391563</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>155.5823699702324</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36379,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>130.1896540801</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>462.7739363632842</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37318,7 +37320,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37394,7 +37396,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439038</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>404.80818270576</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>122.2114398442797</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391581</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>775.8591284337442</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099017</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>192.3068100561954</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099017</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>290.8492358086953</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>414.4590390428846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1492052.7862877</v>
+        <v>1491356.12508261</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114759</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7432343.82848429</v>
+        <v>7432343.828484289</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>270.967185095332</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -673,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>72.57574927862522</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.027916671934</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>187.4581905169974</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>77.56940719006563</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>138.9927610751704</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -949,13 +949,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>130.807786556157</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>265.3439815931935</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>294.3155467214276</v>
+        <v>334.2553197328295</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532369</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>216.6709976520901</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1426,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.8510591046953</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.8970328977319</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095529</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1767,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>167.8164790129223</v>
       </c>
       <c r="G16" t="n">
-        <v>144.4880612633694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1824,7 +1824,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095533</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>119.8908800354068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>185.8445786902417</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="T22" t="n">
-        <v>76.34947650094023</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.3070532137306</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>121.2482518332239</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>110.4129099940053</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>222.3294351332533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>40.56488160647112</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3189,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>25.08858768490821</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D37" t="n">
-        <v>60.90821401514369</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486154</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>76.34947650094</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.6836051445039</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>91.74981090988285</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>16.66918694451884</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864471</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396358</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686068</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.4828916608715</v>
+        <v>124.1336499652903</v>
       </c>
       <c r="C2" t="n">
-        <v>578.6225657145757</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>559.37034893998</v>
+        <v>82.02110724439886</v>
       </c>
       <c r="E2" t="n">
-        <v>537.4338131282416</v>
+        <v>60.08457143266047</v>
       </c>
       <c r="F2" t="n">
-        <v>516.3500353580458</v>
+        <v>39.00079366246477</v>
       </c>
       <c r="G2" t="n">
-        <v>112.0109729474945</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="L2" t="n">
-        <v>521.1434366268327</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="M2" t="n">
-        <v>1000.082360869261</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="N2" t="n">
-        <v>1479.02128511169</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="O2" t="n">
-        <v>1479.02128511169</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.02128511169</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615873</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
         <v>1935.106764615873</v>
@@ -4363,19 +4363,19 @@
         <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489013</v>
+        <v>1572.384561085426</v>
       </c>
       <c r="V2" t="n">
-        <v>1830.739470489013</v>
+        <v>1214.895146211675</v>
       </c>
       <c r="W2" t="n">
-        <v>1434.34812078936</v>
+        <v>1214.895146211675</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.628121957107</v>
+        <v>803.1751473794222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1021.331255952402</v>
+        <v>397.8378773343126</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.542625066818</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843228</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996078</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.494829372545</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554492</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730532</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353628</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353628</v>
+        <v>46.1487782542293</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149538</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>398.1166233149538</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>398.1166233149538</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>398.1166233149538</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="N3" t="n">
-        <v>513.0834392682364</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="O3" t="n">
-        <v>992.0223635106648</v>
+        <v>822.2860546829161</v>
       </c>
       <c r="P3" t="n">
-        <v>1470.961287753093</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615873</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474805</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366925</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335884</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868808</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.3352123390309</v>
+        <v>811.8300196189408</v>
       </c>
       <c r="C4" t="n">
-        <v>549.3352123390309</v>
+        <v>639.8574564978568</v>
       </c>
       <c r="D4" t="n">
-        <v>549.3352123390309</v>
+        <v>476.5406836246275</v>
       </c>
       <c r="E4" t="n">
-        <v>383.1270064918845</v>
+        <v>310.3324777774811</v>
       </c>
       <c r="F4" t="n">
-        <v>383.1270064918845</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="G4" t="n">
-        <v>216.8700367861166</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>73.07376829427099</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271597</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974105</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773446</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615873</v>
@@ -4515,25 +4515,25 @@
         <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135008</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.971717135008</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.971717135008</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="V4" t="n">
-        <v>1483.260249743036</v>
+        <v>1745.755057022946</v>
       </c>
       <c r="W4" t="n">
-        <v>1208.407845915549</v>
+        <v>1470.902653195459</v>
       </c>
       <c r="X4" t="n">
-        <v>965.8439493613545</v>
+        <v>1228.338756641264</v>
       </c>
       <c r="Y4" t="n">
-        <v>739.5011810510965</v>
+        <v>1001.995988331006</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>305.2233393375071</v>
+        <v>1029.323819803441</v>
       </c>
       <c r="C5" t="n">
-        <v>282.3630133912113</v>
+        <v>602.4230898167409</v>
       </c>
       <c r="D5" t="n">
-        <v>263.1107966166157</v>
+        <v>179.1304690017412</v>
       </c>
       <c r="E5" t="n">
-        <v>241.1742608048773</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>220.0904830346816</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>219.7918246645343</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1542.1289725064</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X5" t="n">
-        <v>1130.408973674147</v>
+        <v>1450.469050099676</v>
       </c>
       <c r="Y5" t="n">
-        <v>725.0717036290372</v>
+        <v>1045.131780054567</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1699405917395</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
         <v>1220.501010560616</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>511.9166383730123</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>339.9440752519283</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>176.627302378699</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>176.627302378699</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>176.627302378699</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>2054.776204981511</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V7" t="n">
-        <v>2054.776204981511</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1170.989271949531</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>928.4253753953359</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>702.0826070850779</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1212.438652888478</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567329</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8980050821372</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,19 +4810,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1633.583883184714</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1632.287017180008</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.447562277202</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C10" t="n">
-        <v>310.474999156118</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D10" t="n">
-        <v>310.474999156118</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X10" t="n">
-        <v>708.7903305874599</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y10" t="n">
-        <v>482.447562277202</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,13 +5029,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5044,10 +5044,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M11" t="n">
         <v>2011.818868109901</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>703.5688235070123</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C13" t="n">
-        <v>531.5962603859283</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D13" t="n">
-        <v>368.279487512699</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E13" t="n">
-        <v>202.0712816655526</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5232,19 +5232,19 @@
         <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.191944545161</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.48047715319</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.628073325703</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X13" t="n">
-        <v>960.064176771508</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y13" t="n">
-        <v>733.72140846125</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5281,19 +5281,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
         <v>4541.493855905342</v>
@@ -5360,22 +5360,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3487.551789132761</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C16" t="n">
-        <v>3487.551789132761</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D16" t="n">
-        <v>3324.235016259532</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E16" t="n">
-        <v>3324.235016259532</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F16" t="n">
-        <v>3324.235016259532</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G16" t="n">
-        <v>3178.287479629866</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>3034.49121113802</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>2992.213971102454</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>3218.741572308291</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>3573.430893602712</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>3964.616688572963</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>4342.108199448999</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>4701.661275036462</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>4421.476826536767</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>4421.476826536767</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>4146.624422709279</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>3904.060526155085</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>3677.717757844826</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.9588572096898</v>
+        <v>709.2223918853055</v>
       </c>
       <c r="C19" t="n">
-        <v>683.9862940886057</v>
+        <v>537.2498287642214</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9862940886057</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.71574081896</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2161.613841793297</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1881.429393293601</v>
+        <v>1924.858896681282</v>
       </c>
       <c r="V19" t="n">
-        <v>1599.71792590163</v>
+        <v>1643.147429289311</v>
       </c>
       <c r="W19" t="n">
-        <v>1324.865522074143</v>
+        <v>1368.295025461824</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.301625519948</v>
+        <v>1125.731128907629</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.9588572096898</v>
+        <v>899.388360597371</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5840,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="T22" t="n">
-        <v>2158.556444171847</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U22" t="n">
-        <v>2158.556444171847</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.844976779876</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W22" t="n">
-        <v>1601.992572952389</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3639.345638226955</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C25" t="n">
-        <v>3639.345638226955</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D25" t="n">
-        <v>3510.752655182783</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E25" t="n">
-        <v>3344.544449335636</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810562</v>
+        <v>2113.204145856409</v>
       </c>
       <c r="T25" t="n">
-        <v>4945.000622810562</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U25" t="n">
-        <v>4664.816174310867</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V25" t="n">
-        <v>4383.104706918895</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W25" t="n">
-        <v>4108.252303091408</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X25" t="n">
-        <v>3865.688406537213</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y25" t="n">
-        <v>3639.345638226955</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>534.5364572184669</v>
+        <v>881.4746279705485</v>
       </c>
       <c r="C28" t="n">
-        <v>534.5364572184669</v>
+        <v>881.4746279705485</v>
       </c>
       <c r="D28" t="n">
-        <v>534.5364572184669</v>
+        <v>718.1578550973192</v>
       </c>
       <c r="E28" t="n">
-        <v>368.3282513713204</v>
+        <v>551.9496492501727</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>380.0878750247331</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>213.8309053189652</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X28" t="n">
-        <v>760.8792255287249</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y28" t="n">
-        <v>534.5364572184669</v>
+        <v>1071.640596682614</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>888.2776948471594</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>847.303066961835</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1822.202732251165</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.350328423678</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1304.786431869483</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1078.443663559225</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6709,13 +6709,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6779,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>795.2884438199453</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>795.2884438199453</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>631.971670946716</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>465.7634650995695</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>293.9016908741299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>127.6447211683621</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.454412532011</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6940,13 +6940,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6973,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1416.431999974578</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1880.577476837357</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>739.8561742104578</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>739.8561742104578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.492679006434</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1673.781211614463</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.928807786976</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1156.364911232781</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>930.0221429225235</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,37 +7162,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P39" t="n">
         <v>1446.844867123559</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2235.67712750613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1953.965660114159</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1679.113256286672</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,25 +7411,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N41" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7490,28 +7490,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>770.0572249530633</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="C43" t="n">
-        <v>598.0846618319792</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="D43" t="n">
-        <v>434.7678889587429</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="E43" t="n">
-        <v>268.5596831115964</v>
+        <v>676.894302505531</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>505.0325282800914</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>338.7755585743235</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>194.9792900824779</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2265.878178248736</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U43" t="n">
-        <v>1985.69372974904</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V43" t="n">
-        <v>1703.982262357069</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W43" t="n">
-        <v>1429.129858529582</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X43" t="n">
-        <v>1186.565961975387</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y43" t="n">
-        <v>960.223193665129</v>
+        <v>1033.268477064743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261618</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988752</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7651,19 +7651,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7681,19 +7681,19 @@
         <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>208.2661037548711</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7827,31 +7827,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
-        <v>159.3603682079964</v>
+        <v>40.61659560001399</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533999</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884142</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641995</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8069,19 +8069,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>137.4711251360493</v>
+        <v>505.1197193675099</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761904</v>
+        <v>48.93033710269412</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587968</v>
+        <v>505.5475323587969</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181978912</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178327</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>98.52275580777444</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8458,22 +8458,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,19 +8543,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.8067063011424</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>586.4197136125407</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8774,7 +8774,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>509.7471451685728</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>61.41381912716452</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>529.5908311320803</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>56.96224792398087</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>279.576101048122</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10357,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10427,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>474.9442047819572</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10588,16 +10588,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>54.3929872213976</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,13 +10901,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>534.642907502631</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11080,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,31 +11138,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>995.5270479465637</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>406.5994887481519</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.4132499202497</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257713102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>116.9973198203195</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>2.326677470262865</v>
       </c>
       <c r="G16" t="n">
-        <v>20.10633874534079</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>121.0150742609522</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>91.53802532445704</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>157.3132665360054</v>
       </c>
       <c r="T22" t="n">
-        <v>164.5564777954188</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.37655193076638</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>31.94539581292184</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>17.80882245539965</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>129.687955883402</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>117.2697181220189</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D37" t="n">
-        <v>100.7753911293533</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>163.7887810877129</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>7.02107166724393</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>224.2367673518402</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>59.64236734312286</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919581</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648192.4368448996</v>
+        <v>648192.4368448997</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>648192.4368448994</v>
+        <v>648192.4368448996</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648192.4368448997</v>
+        <v>648192.4368448994</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086514</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086514</v>
       </c>
       <c r="D2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086515</v>
       </c>
       <c r="E2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="F2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="H2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="I2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="J2" t="n">
         <v>435573.5624315215</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>435573.5624315215</v>
       </c>
-      <c r="G2" t="n">
-        <v>435573.5624315214</v>
-      </c>
-      <c r="H2" t="n">
-        <v>435573.5624315214</v>
-      </c>
-      <c r="I2" t="n">
-        <v>435573.5624315214</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="N2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="O2" t="n">
         <v>435573.5624315218</v>
       </c>
-      <c r="L2" t="n">
-        <v>435573.5624315216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>435573.5624315215</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435573.5624315214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>435573.5624315214</v>
-      </c>
       <c r="P2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315217</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361217</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701975</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465253</v>
+        <v>211246.6236465252</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26432,7 +26432,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458318</v>
@@ -26450,7 +26450,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458318</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14980.5251703734</v>
+        <v>14980.52517037363</v>
       </c>
       <c r="C6" t="n">
-        <v>160673.5910082695</v>
+        <v>160673.5910082696</v>
       </c>
       <c r="D6" t="n">
-        <v>184080.4246818816</v>
+        <v>184080.4246818819</v>
       </c>
       <c r="E6" t="n">
-        <v>41071.28964061938</v>
+        <v>41020.25897843533</v>
       </c>
       <c r="F6" t="n">
-        <v>256810.6461972599</v>
+        <v>256759.6155350758</v>
       </c>
       <c r="G6" t="n">
-        <v>256810.6461972599</v>
+        <v>256759.6155350759</v>
       </c>
       <c r="H6" t="n">
-        <v>256810.6461972599</v>
+        <v>256759.6155350759</v>
       </c>
       <c r="I6" t="n">
-        <v>256810.6461972598</v>
+        <v>256759.6155350758</v>
       </c>
       <c r="J6" t="n">
-        <v>130233.3776169713</v>
+        <v>130182.3469547868</v>
       </c>
       <c r="K6" t="n">
-        <v>238164.0458402405</v>
+        <v>238113.0151780559</v>
       </c>
       <c r="L6" t="n">
-        <v>256810.6461972601</v>
+        <v>256759.6155350759</v>
       </c>
       <c r="M6" t="n">
-        <v>76746.77474209231</v>
+        <v>76695.74407990823</v>
       </c>
       <c r="N6" t="n">
-        <v>256810.6461972599</v>
+        <v>256759.6155350759</v>
       </c>
       <c r="O6" t="n">
-        <v>256810.64619726</v>
+        <v>256759.615535076</v>
       </c>
       <c r="P6" t="n">
-        <v>256810.6461972601</v>
+        <v>256759.6155350759</v>
       </c>
     </row>
   </sheetData>
@@ -27014,7 +27014,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162597</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162597</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162597</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>144.6826955532827</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>222.3139454620803</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27435,19 +27435,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>64.74296590519279</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27596,7 +27596,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>91.43616220105397</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>344.1477632635554</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>155.8969336655351</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33.78661345255321</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.759898196018582</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>128.3161759654053</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.64236734312206</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23.46725993656281</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.487406060387629e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
-        <v>121.0483257753735</v>
+        <v>2.304553167391073</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>483.7766911539682</v>
-      </c>
-      <c r="N2" t="n">
-        <v>483.7766911539682</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>116.1280969225076</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539682</v>
+        <v>25.7584473804719</v>
       </c>
       <c r="P3" t="n">
         <v>483.7766911539682</v>
@@ -34801,7 +34801,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408791</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598462</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35011,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>75.42597529544646</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35178,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>440.0596680121639</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1076711799178</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
@@ -35494,7 +35494,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>38.24192940494229</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,7 +35819,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977433</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>507.0757444178507</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391563</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>19.53098502454905</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>257.8052598432934</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>30.72006782725346</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>512.8720662978023</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37800,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,31 +37858,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>974.1840197330221</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391497</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
